--- a/Functionalies_Dependencies.xlsx
+++ b/Functionalies_Dependencies.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TP-C1\Studenten\RSchneider\Austausch\Hendrik\Softwar_Tool_22112017\master 29.01\upload\end\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7020" tabRatio="512"/>
   </bookViews>
@@ -25,16 +30,16 @@
     <definedName name="Z_DED21925_8CB0_47EC_AE7D_4B4AF97737F6_.wvu.FilterData" localSheetId="0" hidden="1">Signals!$A$3:$V$288</definedName>
     <definedName name="Z_F0A49EB7_CA97_4F18_9C2C_3CE120F4ADA7_.wvu.FilterData" localSheetId="0" hidden="1">Signals!$A$3:$V$288</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Dr. -Ing. Thorsten Stamm von Baumgarten - Personal View" guid="{7118326F-6441-4F9D-B056-5583B3D89407}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="1"/>
     <customWorkbookView name="Wolf, Markus (TP-C) - Persönliche Ansicht" guid="{5CF42B20-F790-4F56-8C93-4128FF919A82}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-9" windowWidth="2418" windowHeight="1468" activeSheetId="1"/>
-    <customWorkbookView name="Dr. -Ing. Thorsten Stamm von Baumgarten - Personal View" guid="{7118326F-6441-4F9D-B056-5583B3D89407}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>RPU</t>
   </si>
@@ -263,11 +268,14 @@
   <si>
     <t>ENG_Ratio NO2/Nox</t>
   </si>
+  <si>
+    <t>ECU_Engine_Speed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -519,32 +521,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -846,7 +833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,10 +848,10 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" style="3" customWidth="1"/>
     <col min="2" max="4" width="16.140625" style="3" customWidth="1"/>
@@ -886,15 +873,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="26"/>
       <c r="I1" s="13"/>
       <c r="J1" s="19"/>
@@ -912,15 +899,15 @@
       <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="27"/>
       <c r="I2" s="14" t="s">
         <v>0</v>
@@ -1741,7 +1728,7 @@
         <f t="array" ref="G24">COUNT(FIND("output",$I24:$V24))</f>
         <v>1</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="16"/>
@@ -1777,7 +1764,7 @@
         <f t="array" ref="G25">COUNT(FIND("output",$I25:$V25))</f>
         <v>1</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="16"/>
@@ -1813,7 +1800,7 @@
         <f t="array" ref="G26">COUNT(FIND("output",$I26:$V26))</f>
         <v>1</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I26" s="16"/>
@@ -1849,7 +1836,7 @@
         <f t="array" ref="G27">COUNT(FIND("output",$I27:$V27))</f>
         <v>1</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I27" s="16"/>
@@ -1885,7 +1872,7 @@
         <f t="array" ref="G28">COUNT(FIND("output",$I28:$V28))</f>
         <v>1</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I28" s="16"/>
@@ -1921,7 +1908,7 @@
         <f t="array" ref="G29">COUNT(FIND("output",$I29:$V29))</f>
         <v>1</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="16"/>
@@ -1957,7 +1944,7 @@
         <f t="array" ref="G30">COUNT(FIND("output",$I30:$V30))</f>
         <v>1</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="16"/>
@@ -1993,7 +1980,7 @@
         <f t="array" ref="G31">COUNT(FIND("output",$I31:$V31))</f>
         <v>1</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="16"/>
@@ -2014,7 +2001,7 @@
       <c r="V31" s="22"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="9"/>
@@ -2029,7 +2016,7 @@
         <f t="array" ref="G32">COUNT(FIND("output",$I32:$V32))</f>
         <v>1</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I32" s="16"/>
@@ -2050,7 +2037,7 @@
       <c r="V32" s="22"/>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="9"/>
@@ -2065,7 +2052,7 @@
         <f t="array" ref="G33">COUNT(FIND("output",$I33:$V33))</f>
         <v>1</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="16"/>
@@ -2078,7 +2065,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="16"/>
-      <c r="S33" s="33" t="s">
+      <c r="S33" s="31" t="s">
         <v>40</v>
       </c>
       <c r="T33" s="22"/>
@@ -2086,7 +2073,7 @@
       <c r="V33" s="22"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="9"/>
@@ -2101,7 +2088,7 @@
         <f t="array" ref="G34">COUNT(FIND("output",$I34:$V34))</f>
         <v>1</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I34" s="16"/>
@@ -2114,7 +2101,7 @@
       <c r="P34" s="16"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="16"/>
-      <c r="S34" s="33" t="s">
+      <c r="S34" s="31" t="s">
         <v>40</v>
       </c>
       <c r="T34" s="22"/>
@@ -2122,7 +2109,9 @@
       <c r="V34" s="22"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2133,14 +2122,16 @@
       </c>
       <c r="G35" s="11">
         <f t="array" ref="G35">COUNT(FIND("output",$I35:$V35))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="16"/>
       <c r="J35" s="22"/>
       <c r="K35" s="16"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="16"/>
+      <c r="M35" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="N35" s="22"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
@@ -9744,16 +9735,16 @@
   </sheetData>
   <autoFilter ref="A3:V288"/>
   <customSheetViews>
-    <customSheetView guid="{5CF42B20-F790-4F56-8C93-4128FF919A82}" scale="70" showAutoFilter="1" hiddenRows="1" topLeftCell="A3">
-      <pane xSplit="7" ySplit="4" topLeftCell="H248" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A265" sqref="A265"/>
+    <customSheetView guid="{7118326F-6441-4F9D-B056-5583B3D89407}" scale="70" showAutoFilter="1">
+      <pane xSplit="7" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="CQ390" sqref="CQ390"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A4:CQ386"/>
     </customSheetView>
-    <customSheetView guid="{7118326F-6441-4F9D-B056-5583B3D89407}" scale="70" showAutoFilter="1">
-      <pane xSplit="7" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="CQ390" sqref="CQ390"/>
+    <customSheetView guid="{5CF42B20-F790-4F56-8C93-4128FF919A82}" scale="70" showAutoFilter="1" hiddenRows="1" topLeftCell="A3">
+      <pane xSplit="7" ySplit="4" topLeftCell="H248" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A265" sqref="A265"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A4:CQ386"/>
@@ -9764,20 +9755,20 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F288">
-    <cfRule type="cellIs" dxfId="6" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H288">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H288">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9841,7 +9832,7 @@
       <selection activeCell="C40" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -10029,12 +10020,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5CF42B20-F790-4F56-8C93-4128FF919A82}">
+    <customSheetView guid="{7118326F-6441-4F9D-B056-5583B3D89407}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7118326F-6441-4F9D-B056-5583B3D89407}">
+    <customSheetView guid="{5CF42B20-F790-4F56-8C93-4128FF919A82}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
